--- a/test/tel01.xlsx
+++ b/test/tel01.xlsx
@@ -16,21 +16,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>Оператор</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
   <si>
     <t>Автомобили с бробегом</t>
   </si>
   <si>
+    <t>89050397320</t>
+  </si>
+  <si>
+    <t>Хозяин</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>ПАО "Вымпел-Коммуникации"</t>
   </si>
   <si>
     <t>Республика Татарстан</t>
   </si>
   <si>
-    <t>Хозяин</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>89241086744</t>
+  </si>
+  <si>
+    <t>Михаил</t>
   </si>
   <si>
     <t>ПАО "МегаФон"</t>
@@ -39,10 +63,7 @@
     <t>Хабаровский край</t>
   </si>
   <si>
-    <t>Михаил</t>
-  </si>
-  <si>
-    <t>Илья</t>
+    <t>89241086745</t>
   </si>
 </sst>
 </file>
@@ -79,11 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -385,87 +407,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1" style="3"/>
+    <col min="1" max="1" bestFit="1" width="12" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3">
-        <v>89859708676</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>89050397320</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
-        <v>89241086744</v>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>89241086746</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/test/tel01.xlsx
+++ b/test/tel01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Телефон</t>
   </si>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>89241086745</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>89038452680</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Тульская обл.</t>
+  </si>
+  <si>
+    <t>cthutq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip.klim1964@mail.ru </t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Заемщик</t>
   </si>
 </sst>
 </file>
@@ -100,7 +124,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -407,19 +432,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="12" customWidth="1" style="3"/>
+    <col min="1" max="1" bestFit="1" width="12" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -434,12 +459,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -454,13 +479,13 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -475,29 +500,55 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3"/>
     </row>
-    <row r="4" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
